--- a/templates/samples-CRISPR.xlsx
+++ b/templates/samples-CRISPR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vzr191/local/bitbucket/snippets/Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vzr191/Desktop/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93667D1-AE98-B746-9FB0-4E558C6B57DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530AB096-68C0-8F47-9870-BB07BBFCCBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11100" yWindow="500" windowWidth="26500" windowHeight="16700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,7 +397,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -540,12 +540,6 @@
     <t>pLib017</t>
   </si>
   <si>
-    <t>pLib017-reporter</t>
-  </si>
-  <si>
-    <t>pLib017-insert</t>
-  </si>
-  <si>
     <t>staggerSize</t>
   </si>
   <si>
@@ -586,6 +580,18 @@
   </si>
   <si>
     <t>AGGCTATA</t>
+  </si>
+  <si>
+    <t>SUMO</t>
+  </si>
+  <si>
+    <t>NEW_LIBRARY</t>
+  </si>
+  <si>
+    <t>MAGECK-DRUGZ-BAGEL</t>
+  </si>
+  <si>
+    <t>MAGECK-BEAN</t>
   </si>
 </sst>
 </file>
@@ -948,7 +954,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -967,7 +975,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -979,16 +987,16 @@
         <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -996,10 +1004,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1014,16 +1022,16 @@
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1031,7 +1039,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -1049,16 +1057,16 @@
         <v>36</v>
       </c>
       <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
         <v>57</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>58</v>
-      </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1084,16 +1092,16 @@
         <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1119,16 +1127,16 @@
         <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -1154,16 +1162,16 @@
         <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1189,16 +1197,16 @@
         <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1224,16 +1232,16 @@
         <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1259,16 +1267,16 @@
         <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1294,16 +1302,16 @@
         <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1329,16 +1337,16 @@
         <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1347,17 +1355,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3F1EEA75-D34C-314C-87A8-348D372A187A}">
+          <x14:formula1>
+            <xm:f>GUIDES!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>G1:G1048576</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{97D7634A-4958-2A4A-AAC0-131E2CE516EA}">
           <x14:formula1>
             <xm:f>pipeline!$A$1:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>F1:F1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3F1EEA75-D34C-314C-87A8-348D372A187A}">
-          <x14:formula1>
-            <xm:f>GUIDES!$A:$A</xm:f>
-          </x14:formula1>
-          <xm:sqref>G1:G1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1421,13 +1429,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964A680A-79A6-C84A-BB8C-CAC114720DF5}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1436,6 +1447,16 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1450,7 +1471,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1472,52 +1493,52 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1527,6 +1548,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="344093a9-d904-4ffb-8b7b-de0b820fd76b">
@@ -1536,15 +1566,6 @@
     <TaxCatchAll xmlns="5795b8a2-0df7-4793-b5f3-596dc329b202" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1777,20 +1798,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF24E226-2F2A-42E2-9F23-09B4291EA6FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A130457-9E9E-4BA0-9555-1742FD5A23F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="344093a9-d904-4ffb-8b7b-de0b820fd76b"/>
     <ds:schemaRef ds:uri="5795b8a2-0df7-4793-b5f3-596dc329b202"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF24E226-2F2A-42E2-9F23-09B4291EA6FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
